--- a/tests/test1/Schema di funzionamento_rev1.1_bom.xlsx
+++ b/tests/test1/Schema di funzionamento_rev1.1_bom.xlsx
@@ -675,16 +675,16 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>XV</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>100</v>
+        <v>910</v>
       </c>
       <c r="D2" s="8" t="inlineStr"/>
       <c r="E2" s="12" t="inlineStr">
         <is>
-          <t>XV100</t>
+          <t>CH910</t>
         </is>
       </c>
       <c r="F2" s="8" t="n"/>
@@ -694,8 +694,16 @@
       <c r="J2" s="8" t="n"/>
       <c r="K2" s="8" t="n"/>
       <c r="L2" s="8" t="n"/>
-      <c r="M2" s="9" t="inlineStr"/>
-      <c r="N2" s="9" t="n"/>
+      <c r="M2" s="9" t="inlineStr">
+        <is>
+          <t>Chiller</t>
+        </is>
+      </c>
+      <c r="N2" s="9" t="inlineStr">
+        <is>
+          <t>Chiller</t>
+        </is>
+      </c>
       <c r="O2" s="8" t="n"/>
       <c r="P2" s="9" t="n"/>
       <c r="Q2" s="10" t="n"/>
@@ -835,16 +843,16 @@
       </c>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C5" s="8" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D5" s="8" t="inlineStr"/>
       <c r="E5" s="12" t="inlineStr">
         <is>
-          <t>G200</t>
+          <t>D500</t>
         </is>
       </c>
       <c r="F5" s="8" t="n"/>
@@ -856,12 +864,12 @@
       <c r="L5" s="8" t="n"/>
       <c r="M5" s="9" t="inlineStr">
         <is>
-          <t>Pompa</t>
+          <t>Tank</t>
         </is>
       </c>
       <c r="N5" s="9" t="inlineStr">
         <is>
-          <t>Pompa a Cavità progressiva</t>
+          <t>Vasca Stoccaggio</t>
         </is>
       </c>
       <c r="O5" s="8" t="n"/>
@@ -891,18 +899,16 @@
       </c>
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>D</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
+      <c r="C6" s="8" t="n">
+        <v>700</v>
       </c>
       <c r="D6" s="8" t="inlineStr"/>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>LS201</t>
+          <t>D700</t>
         </is>
       </c>
       <c r="F6" s="8" t="n"/>
@@ -914,10 +920,14 @@
       <c r="L6" s="8" t="n"/>
       <c r="M6" s="9" t="inlineStr">
         <is>
-          <t>Livellostato</t>
+          <t>Tank</t>
         </is>
       </c>
-      <c r="N6" s="9" t="n"/>
+      <c r="N6" s="9" t="inlineStr">
+        <is>
+          <t>Serbatoi stoccaggio</t>
+        </is>
+      </c>
       <c r="O6" s="8" t="n"/>
       <c r="P6" s="9" t="n"/>
       <c r="Q6" s="10" t="n"/>
@@ -945,18 +955,16 @@
       </c>
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>LSL</t>
+          <t>D</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>202</t>
-        </is>
+      <c r="C7" s="8" t="n">
+        <v>800</v>
       </c>
       <c r="D7" s="8" t="inlineStr"/>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>LSL202</t>
+          <t>D800</t>
         </is>
       </c>
       <c r="F7" s="8" t="n"/>
@@ -968,10 +976,14 @@
       <c r="L7" s="8" t="n"/>
       <c r="M7" s="9" t="inlineStr">
         <is>
-          <t>Livellostato</t>
+          <t>Tank</t>
         </is>
       </c>
-      <c r="N7" s="9" t="n"/>
+      <c r="N7" s="9" t="inlineStr">
+        <is>
+          <t>Serbatoio di refluo contenente ammoniaca</t>
+        </is>
+      </c>
       <c r="O7" s="8" t="n"/>
       <c r="P7" s="9" t="n"/>
       <c r="Q7" s="10" t="n"/>
@@ -999,16 +1011,16 @@
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C8" s="8" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="D8" s="8" t="inlineStr"/>
       <c r="E8" s="12" t="inlineStr">
         <is>
-          <t>G300</t>
+          <t>D850</t>
         </is>
       </c>
       <c r="F8" s="8" t="n"/>
@@ -1020,12 +1032,12 @@
       <c r="L8" s="8" t="n"/>
       <c r="M8" s="9" t="inlineStr">
         <is>
-          <t>FiltroPressa</t>
+          <t>Tank</t>
         </is>
       </c>
       <c r="N8" s="9" t="inlineStr">
         <is>
-          <t>Filtropressa</t>
+          <t>Torre di strippaggio</t>
         </is>
       </c>
       <c r="O8" s="8" t="n"/>
@@ -1055,18 +1067,18 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>WE</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>501</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="12" t="inlineStr">
         <is>
-          <t>WE401</t>
+          <t>FT501</t>
         </is>
       </c>
       <c r="F9" s="8" t="n"/>
@@ -1078,7 +1090,7 @@
       <c r="L9" s="8" t="n"/>
       <c r="M9" s="9" t="inlineStr">
         <is>
-          <t>Bilancia</t>
+          <t>Flowmeter Impulse</t>
         </is>
       </c>
       <c r="N9" s="9" t="n"/>
@@ -1113,12 +1125,12 @@
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="12" t="inlineStr">
         <is>
-          <t>G400</t>
+          <t>G200</t>
         </is>
       </c>
       <c r="F10" s="8" t="n"/>
@@ -1130,12 +1142,12 @@
       <c r="L10" s="8" t="n"/>
       <c r="M10" s="9" t="inlineStr">
         <is>
-          <t>Screw Conveyor</t>
+          <t>Pompa</t>
         </is>
       </c>
       <c r="N10" s="9" t="inlineStr">
         <is>
-          <t>Screw Conveyor</t>
+          <t>Pompa a Cavità progressiva</t>
         </is>
       </c>
       <c r="O10" s="8" t="n"/>
@@ -1165,18 +1177,16 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>WT</t>
+          <t>G</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>402</t>
-        </is>
+      <c r="C11" s="8" t="n">
+        <v>300</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="12" t="inlineStr">
         <is>
-          <t>WT402</t>
+          <t>G300</t>
         </is>
       </c>
       <c r="F11" s="8" t="n"/>
@@ -1188,10 +1198,14 @@
       <c r="L11" s="8" t="n"/>
       <c r="M11" s="9" t="inlineStr">
         <is>
-          <t>Trasduttore Peso Bilancia</t>
+          <t>FiltroPressa</t>
         </is>
       </c>
-      <c r="N11" s="9" t="n"/>
+      <c r="N11" s="9" t="inlineStr">
+        <is>
+          <t>Filtropressa</t>
+        </is>
+      </c>
       <c r="O11" s="8" t="n"/>
       <c r="P11" s="9" t="n"/>
       <c r="Q11" s="10" t="n"/>
@@ -1219,18 +1233,16 @@
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>G</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>501</t>
-        </is>
+      <c r="C12" s="8" t="n">
+        <v>400</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="12" t="inlineStr">
         <is>
-          <t>LS501</t>
+          <t>G400</t>
         </is>
       </c>
       <c r="F12" s="8" t="n"/>
@@ -1242,10 +1254,14 @@
       <c r="L12" s="8" t="n"/>
       <c r="M12" s="9" t="inlineStr">
         <is>
-          <t>Livellostato</t>
+          <t>Screw Conveyor</t>
         </is>
       </c>
-      <c r="N12" s="9" t="n"/>
+      <c r="N12" s="9" t="inlineStr">
+        <is>
+          <t>Screw Conveyor</t>
+        </is>
+      </c>
       <c r="O12" s="8" t="n"/>
       <c r="P12" s="9" t="n"/>
       <c r="Q12" s="10" t="n"/>
@@ -1273,16 +1289,16 @@
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="12" t="inlineStr">
         <is>
-          <t>D500</t>
+          <t>G600</t>
         </is>
       </c>
       <c r="F13" s="8" t="n"/>
@@ -1294,12 +1310,12 @@
       <c r="L13" s="8" t="n"/>
       <c r="M13" s="9" t="inlineStr">
         <is>
-          <t>Tank</t>
+          <t>Abattitore</t>
         </is>
       </c>
       <c r="N13" s="9" t="inlineStr">
         <is>
-          <t>Vasca Stoccaggio</t>
+          <t>Abattitore</t>
         </is>
       </c>
       <c r="O13" s="8" t="n"/>
@@ -1329,16 +1345,16 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>XV</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>501</v>
+        <v>710</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="12" t="inlineStr">
         <is>
-          <t>XV501</t>
+          <t>G710</t>
         </is>
       </c>
       <c r="F14" s="8" t="n"/>
@@ -1348,8 +1364,16 @@
       <c r="J14" s="8" t="n"/>
       <c r="K14" s="8" t="n"/>
       <c r="L14" s="8" t="n"/>
-      <c r="M14" s="9" t="inlineStr"/>
-      <c r="N14" s="9" t="n"/>
+      <c r="M14" s="9" t="inlineStr">
+        <is>
+          <t>Pompa</t>
+        </is>
+      </c>
+      <c r="N14" s="9" t="inlineStr">
+        <is>
+          <t>Pompa a Cavità progressiva</t>
+        </is>
+      </c>
       <c r="O14" s="8" t="n"/>
       <c r="P14" s="9" t="n"/>
       <c r="Q14" s="10" t="n"/>
@@ -1377,18 +1401,16 @@
       </c>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>G</t>
         </is>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>501</t>
-        </is>
+      <c r="C15" s="8" t="n">
+        <v>720</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="12" t="inlineStr">
         <is>
-          <t>FT501</t>
+          <t>G720</t>
         </is>
       </c>
       <c r="F15" s="8" t="n"/>
@@ -1400,10 +1422,14 @@
       <c r="L15" s="8" t="n"/>
       <c r="M15" s="9" t="inlineStr">
         <is>
-          <t>Flowmeter Impulse</t>
+          <t>FiltroPressa</t>
         </is>
       </c>
-      <c r="N15" s="9" t="n"/>
+      <c r="N15" s="9" t="inlineStr">
+        <is>
+          <t>Filtropressa</t>
+        </is>
+      </c>
       <c r="O15" s="8" t="n"/>
       <c r="P15" s="9" t="n"/>
       <c r="Q15" s="10" t="n"/>
@@ -1435,12 +1461,12 @@
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>600</v>
+        <v>810</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="12" t="inlineStr">
         <is>
-          <t>G600</t>
+          <t>G810</t>
         </is>
       </c>
       <c r="F16" s="8" t="n"/>
@@ -1452,12 +1478,12 @@
       <c r="L16" s="8" t="n"/>
       <c r="M16" s="9" t="inlineStr">
         <is>
-          <t>Abattitore</t>
+          <t>Pompa</t>
         </is>
       </c>
       <c r="N16" s="9" t="inlineStr">
         <is>
-          <t>Abattitore</t>
+          <t>Pompa dosatrice</t>
         </is>
       </c>
       <c r="O16" s="8" t="n"/>
@@ -1487,16 +1513,16 @@
       </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>XV</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>601</v>
+        <v>920</v>
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="12" t="inlineStr">
         <is>
-          <t>XV601</t>
+          <t>G920</t>
         </is>
       </c>
       <c r="F17" s="8" t="n"/>
@@ -1506,8 +1532,16 @@
       <c r="J17" s="8" t="n"/>
       <c r="K17" s="8" t="n"/>
       <c r="L17" s="8" t="n"/>
-      <c r="M17" s="9" t="inlineStr"/>
-      <c r="N17" s="9" t="n"/>
+      <c r="M17" s="9" t="inlineStr">
+        <is>
+          <t>Pompa</t>
+        </is>
+      </c>
+      <c r="N17" s="9" t="inlineStr">
+        <is>
+          <t>Pompa chiller</t>
+        </is>
+      </c>
       <c r="O17" s="8" t="n"/>
       <c r="P17" s="9" t="n"/>
       <c r="Q17" s="10" t="n"/>
@@ -1535,18 +1569,16 @@
       </c>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>G</t>
         </is>
       </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>601</t>
-        </is>
+      <c r="C18" s="8" t="n">
+        <v>940</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="12" t="inlineStr">
         <is>
-          <t>pH601</t>
+          <t>G940</t>
         </is>
       </c>
       <c r="F18" s="8" t="n"/>
@@ -1558,10 +1590,14 @@
       <c r="L18" s="8" t="n"/>
       <c r="M18" s="9" t="inlineStr">
         <is>
-          <t>pH metro</t>
+          <t>Pompa</t>
         </is>
       </c>
-      <c r="N18" s="9" t="n"/>
+      <c r="N18" s="9" t="inlineStr">
+        <is>
+          <t>Pompa dosatrice</t>
+        </is>
+      </c>
       <c r="O18" s="8" t="n"/>
       <c r="P18" s="9" t="n"/>
       <c r="Q18" s="10" t="n"/>
@@ -1589,18 +1625,16 @@
       </c>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>H</t>
         </is>
       </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>701</t>
-        </is>
+      <c r="C19" s="8" t="n">
+        <v>850</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="12" t="inlineStr">
         <is>
-          <t>LS701</t>
+          <t>H850</t>
         </is>
       </c>
       <c r="F19" s="8" t="n"/>
@@ -1612,10 +1646,14 @@
       <c r="L19" s="8" t="n"/>
       <c r="M19" s="9" t="inlineStr">
         <is>
-          <t>Livellostato</t>
+          <t>Heater</t>
         </is>
       </c>
-      <c r="N19" s="9" t="n"/>
+      <c r="N19" s="9" t="inlineStr">
+        <is>
+          <t>Riscaldatore</t>
+        </is>
+      </c>
       <c r="O19" s="8" t="n"/>
       <c r="P19" s="9" t="n"/>
       <c r="Q19" s="10" t="n"/>
@@ -1643,18 +1681,16 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>LSL</t>
+          <t>HE</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>702</t>
-        </is>
+      <c r="C20" s="8" t="n">
+        <v>900</v>
       </c>
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="12" t="inlineStr">
         <is>
-          <t>LSL702</t>
+          <t>HE900</t>
         </is>
       </c>
       <c r="F20" s="8" t="n"/>
@@ -1666,10 +1702,14 @@
       <c r="L20" s="8" t="n"/>
       <c r="M20" s="9" t="inlineStr">
         <is>
-          <t>Livellostato</t>
+          <t>Heater Exchanger</t>
         </is>
       </c>
-      <c r="N20" s="9" t="n"/>
+      <c r="N20" s="9" t="inlineStr">
+        <is>
+          <t>Heater Exchanger</t>
+        </is>
+      </c>
       <c r="O20" s="8" t="n"/>
       <c r="P20" s="9" t="n"/>
       <c r="Q20" s="10" t="n"/>
@@ -1697,16 +1737,16 @@
       </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>HE</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>700</v>
+        <v>905</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="12" t="inlineStr">
         <is>
-          <t>D700</t>
+          <t>HE905</t>
         </is>
       </c>
       <c r="F21" s="8" t="n"/>
@@ -1718,12 +1758,12 @@
       <c r="L21" s="8" t="n"/>
       <c r="M21" s="9" t="inlineStr">
         <is>
-          <t>Tank</t>
+          <t>Heater Exchanger</t>
         </is>
       </c>
       <c r="N21" s="9" t="inlineStr">
         <is>
-          <t>Serbatoi stoccaggio</t>
+          <t>Heater Exchanger</t>
         </is>
       </c>
       <c r="O21" s="8" t="n"/>
@@ -1753,16 +1793,16 @@
       </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HE</t>
         </is>
       </c>
       <c r="C22" s="8" t="n">
-        <v>710</v>
+        <v>930</v>
       </c>
       <c r="D22" s="8" t="inlineStr"/>
       <c r="E22" s="12" t="inlineStr">
         <is>
-          <t>G710</t>
+          <t>HE930</t>
         </is>
       </c>
       <c r="F22" s="8" t="n"/>
@@ -1774,12 +1814,12 @@
       <c r="L22" s="8" t="n"/>
       <c r="M22" s="9" t="inlineStr">
         <is>
-          <t>Pompa</t>
+          <t>Bubbler</t>
         </is>
       </c>
       <c r="N22" s="9" t="inlineStr">
         <is>
-          <t>Pompa a Cavità progressiva</t>
+          <t>Gorgoliatore</t>
         </is>
       </c>
       <c r="O22" s="8" t="n"/>
@@ -1809,16 +1849,18 @@
       </c>
       <c r="B23" s="8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>LS</t>
         </is>
       </c>
-      <c r="C23" s="8" t="n">
-        <v>720</v>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
       </c>
       <c r="D23" s="8" t="inlineStr"/>
       <c r="E23" s="12" t="inlineStr">
         <is>
-          <t>G720</t>
+          <t>LS201</t>
         </is>
       </c>
       <c r="F23" s="8" t="n"/>
@@ -1830,14 +1872,10 @@
       <c r="L23" s="8" t="n"/>
       <c r="M23" s="9" t="inlineStr">
         <is>
-          <t>FiltroPressa</t>
+          <t>Livellostato</t>
         </is>
       </c>
-      <c r="N23" s="9" t="inlineStr">
-        <is>
-          <t>Filtropressa</t>
-        </is>
-      </c>
+      <c r="N23" s="9" t="n"/>
       <c r="O23" s="8" t="n"/>
       <c r="P23" s="9" t="n"/>
       <c r="Q23" s="10" t="n"/>
@@ -1865,16 +1903,18 @@
       </c>
       <c r="B24" s="8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>LS</t>
         </is>
       </c>
-      <c r="C24" s="8" t="n">
-        <v>800</v>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
       </c>
       <c r="D24" s="8" t="inlineStr"/>
       <c r="E24" s="12" t="inlineStr">
         <is>
-          <t>D800</t>
+          <t>LS501</t>
         </is>
       </c>
       <c r="F24" s="8" t="n"/>
@@ -1886,14 +1926,10 @@
       <c r="L24" s="8" t="n"/>
       <c r="M24" s="9" t="inlineStr">
         <is>
-          <t>Tank</t>
+          <t>Livellostato</t>
         </is>
       </c>
-      <c r="N24" s="9" t="inlineStr">
-        <is>
-          <t>Serbatoio di refluo contenente ammoniaca</t>
-        </is>
-      </c>
+      <c r="N24" s="9" t="n"/>
       <c r="O24" s="8" t="n"/>
       <c r="P24" s="9" t="n"/>
       <c r="Q24" s="10" t="n"/>
@@ -1921,16 +1957,18 @@
       </c>
       <c r="B25" s="8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>LS</t>
         </is>
       </c>
-      <c r="C25" s="8" t="n">
-        <v>810</v>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
       </c>
       <c r="D25" s="8" t="inlineStr"/>
       <c r="E25" s="12" t="inlineStr">
         <is>
-          <t>G810</t>
+          <t>LS701</t>
         </is>
       </c>
       <c r="F25" s="8" t="n"/>
@@ -1942,14 +1980,10 @@
       <c r="L25" s="8" t="n"/>
       <c r="M25" s="9" t="inlineStr">
         <is>
-          <t>Pompa</t>
+          <t>Livellostato</t>
         </is>
       </c>
-      <c r="N25" s="9" t="inlineStr">
-        <is>
-          <t>Pompa dosatrice</t>
-        </is>
-      </c>
+      <c r="N25" s="9" t="n"/>
       <c r="O25" s="8" t="n"/>
       <c r="P25" s="9" t="n"/>
       <c r="Q25" s="10" t="n"/>
@@ -1982,13 +2016,13 @@
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>801</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr"/>
       <c r="E26" s="12" t="inlineStr">
         <is>
-          <t>LS851</t>
+          <t>LS801</t>
         </is>
       </c>
       <c r="F26" s="8" t="n"/>
@@ -2031,18 +2065,18 @@
       </c>
       <c r="B27" s="8" t="inlineStr">
         <is>
-          <t>LSL</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="C27" s="8" t="inlineStr">
         <is>
-          <t>802</t>
+          <t>851</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr"/>
       <c r="E27" s="12" t="inlineStr">
         <is>
-          <t>LSL802</t>
+          <t>LS851</t>
         </is>
       </c>
       <c r="F27" s="8" t="n"/>
@@ -2085,16 +2119,18 @@
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>LSL</t>
         </is>
       </c>
-      <c r="C28" s="8" t="n">
-        <v>850</v>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
       </c>
       <c r="D28" s="8" t="inlineStr"/>
       <c r="E28" s="12" t="inlineStr">
         <is>
-          <t>D850</t>
+          <t>LSL202</t>
         </is>
       </c>
       <c r="F28" s="8" t="n"/>
@@ -2106,14 +2142,10 @@
       <c r="L28" s="8" t="n"/>
       <c r="M28" s="9" t="inlineStr">
         <is>
-          <t>Tank</t>
+          <t>Livellostato</t>
         </is>
       </c>
-      <c r="N28" s="9" t="inlineStr">
-        <is>
-          <t>Torre di strippaggio</t>
-        </is>
-      </c>
+      <c r="N28" s="9" t="n"/>
       <c r="O28" s="8" t="n"/>
       <c r="P28" s="9" t="n"/>
       <c r="Q28" s="10" t="n"/>
@@ -2141,16 +2173,18 @@
       </c>
       <c r="B29" s="8" t="inlineStr">
         <is>
-          <t>XV</t>
+          <t>LSL</t>
         </is>
       </c>
-      <c r="C29" s="8" t="n">
-        <v>851</v>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
       </c>
       <c r="D29" s="8" t="inlineStr"/>
       <c r="E29" s="12" t="inlineStr">
         <is>
-          <t>XV851</t>
+          <t>LSL702</t>
         </is>
       </c>
       <c r="F29" s="8" t="n"/>
@@ -2160,7 +2194,11 @@
       <c r="J29" s="8" t="n"/>
       <c r="K29" s="8" t="n"/>
       <c r="L29" s="8" t="n"/>
-      <c r="M29" s="9" t="inlineStr"/>
+      <c r="M29" s="9" t="inlineStr">
+        <is>
+          <t>Livellostato</t>
+        </is>
+      </c>
       <c r="N29" s="9" t="n"/>
       <c r="O29" s="8" t="n"/>
       <c r="P29" s="9" t="n"/>
@@ -2189,16 +2227,18 @@
       </c>
       <c r="B30" s="8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>LSL</t>
         </is>
       </c>
-      <c r="C30" s="8" t="n">
-        <v>850</v>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
       </c>
       <c r="D30" s="8" t="inlineStr"/>
       <c r="E30" s="12" t="inlineStr">
         <is>
-          <t>H850</t>
+          <t>LSL802</t>
         </is>
       </c>
       <c r="F30" s="8" t="n"/>
@@ -2210,14 +2250,10 @@
       <c r="L30" s="8" t="n"/>
       <c r="M30" s="9" t="inlineStr">
         <is>
-          <t>Heater</t>
+          <t>Livellostato</t>
         </is>
       </c>
-      <c r="N30" s="9" t="inlineStr">
-        <is>
-          <t>Riscaldatore</t>
-        </is>
-      </c>
+      <c r="N30" s="9" t="n"/>
       <c r="O30" s="8" t="n"/>
       <c r="P30" s="9" t="n"/>
       <c r="Q30" s="10" t="n"/>
@@ -2245,16 +2281,18 @@
       </c>
       <c r="B31" s="8" t="inlineStr">
         <is>
-          <t>HE</t>
+          <t>pH</t>
         </is>
       </c>
-      <c r="C31" s="8" t="n">
-        <v>900</v>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
       </c>
       <c r="D31" s="8" t="inlineStr"/>
       <c r="E31" s="12" t="inlineStr">
         <is>
-          <t>HE900</t>
+          <t>pH601</t>
         </is>
       </c>
       <c r="F31" s="8" t="n"/>
@@ -2266,14 +2304,10 @@
       <c r="L31" s="8" t="n"/>
       <c r="M31" s="9" t="inlineStr">
         <is>
-          <t>Heater Exchanger</t>
+          <t>pH metro</t>
         </is>
       </c>
-      <c r="N31" s="9" t="inlineStr">
-        <is>
-          <t>Heater Exchanger</t>
-        </is>
-      </c>
+      <c r="N31" s="9" t="n"/>
       <c r="O31" s="8" t="n"/>
       <c r="P31" s="9" t="n"/>
       <c r="Q31" s="10" t="n"/>
@@ -2301,16 +2335,18 @@
       </c>
       <c r="B32" s="8" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>pH</t>
         </is>
       </c>
-      <c r="C32" s="8" t="n">
-        <v>910</v>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
       </c>
       <c r="D32" s="8" t="inlineStr"/>
       <c r="E32" s="12" t="inlineStr">
         <is>
-          <t>CH910</t>
+          <t>pH931</t>
         </is>
       </c>
       <c r="F32" s="8" t="n"/>
@@ -2322,14 +2358,10 @@
       <c r="L32" s="8" t="n"/>
       <c r="M32" s="9" t="inlineStr">
         <is>
-          <t>Chiller</t>
+          <t>pH metro</t>
         </is>
       </c>
-      <c r="N32" s="9" t="inlineStr">
-        <is>
-          <t>Chiller</t>
-        </is>
-      </c>
+      <c r="N32" s="9" t="n"/>
       <c r="O32" s="8" t="n"/>
       <c r="P32" s="9" t="n"/>
       <c r="Q32" s="10" t="n"/>
@@ -2357,16 +2389,18 @@
       </c>
       <c r="B33" s="8" t="inlineStr">
         <is>
-          <t>HE</t>
+          <t>WE</t>
         </is>
       </c>
-      <c r="C33" s="8" t="n">
-        <v>930</v>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
       </c>
       <c r="D33" s="8" t="inlineStr"/>
       <c r="E33" s="12" t="inlineStr">
         <is>
-          <t>HE930</t>
+          <t>WE401</t>
         </is>
       </c>
       <c r="F33" s="8" t="n"/>
@@ -2378,14 +2412,10 @@
       <c r="L33" s="8" t="n"/>
       <c r="M33" s="9" t="inlineStr">
         <is>
-          <t>Bubbler</t>
+          <t>Bilancia</t>
         </is>
       </c>
-      <c r="N33" s="9" t="inlineStr">
-        <is>
-          <t>Gorgoliatore</t>
-        </is>
-      </c>
+      <c r="N33" s="9" t="n"/>
       <c r="O33" s="8" t="n"/>
       <c r="P33" s="9" t="n"/>
       <c r="Q33" s="10" t="n"/>
@@ -2413,16 +2443,18 @@
       </c>
       <c r="B34" s="8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>WT</t>
         </is>
       </c>
-      <c r="C34" s="8" t="n">
-        <v>940</v>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
       </c>
       <c r="D34" s="8" t="inlineStr"/>
       <c r="E34" s="12" t="inlineStr">
         <is>
-          <t>G940</t>
+          <t>WT402</t>
         </is>
       </c>
       <c r="F34" s="8" t="n"/>
@@ -2434,14 +2466,10 @@
       <c r="L34" s="8" t="n"/>
       <c r="M34" s="9" t="inlineStr">
         <is>
-          <t>Pompa</t>
+          <t>Trasduttore Peso Bilancia</t>
         </is>
       </c>
-      <c r="N34" s="9" t="inlineStr">
-        <is>
-          <t>Pompa dosatrice</t>
-        </is>
-      </c>
+      <c r="N34" s="9" t="n"/>
       <c r="O34" s="8" t="n"/>
       <c r="P34" s="9" t="n"/>
       <c r="Q34" s="10" t="n"/>
@@ -2469,18 +2497,16 @@
       </c>
       <c r="B35" s="8" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>XV</t>
         </is>
       </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <t>801</t>
-        </is>
+      <c r="C35" s="8" t="n">
+        <v>100</v>
       </c>
       <c r="D35" s="8" t="inlineStr"/>
       <c r="E35" s="12" t="inlineStr">
         <is>
-          <t>LS801</t>
+          <t>XV100</t>
         </is>
       </c>
       <c r="F35" s="8" t="n"/>
@@ -2490,11 +2516,7 @@
       <c r="J35" s="8" t="n"/>
       <c r="K35" s="8" t="n"/>
       <c r="L35" s="8" t="n"/>
-      <c r="M35" s="9" t="inlineStr">
-        <is>
-          <t>Livellostato</t>
-        </is>
-      </c>
+      <c r="M35" s="9" t="inlineStr"/>
       <c r="N35" s="9" t="n"/>
       <c r="O35" s="8" t="n"/>
       <c r="P35" s="9" t="n"/>
@@ -2523,18 +2545,16 @@
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>XV</t>
         </is>
       </c>
-      <c r="C36" s="8" t="inlineStr">
-        <is>
-          <t>931</t>
-        </is>
+      <c r="C36" s="8" t="n">
+        <v>501</v>
       </c>
       <c r="D36" s="8" t="inlineStr"/>
       <c r="E36" s="12" t="inlineStr">
         <is>
-          <t>pH931</t>
+          <t>XV501</t>
         </is>
       </c>
       <c r="F36" s="8" t="n"/>
@@ -2544,11 +2564,7 @@
       <c r="J36" s="8" t="n"/>
       <c r="K36" s="8" t="n"/>
       <c r="L36" s="8" t="n"/>
-      <c r="M36" s="9" t="inlineStr">
-        <is>
-          <t>pH metro</t>
-        </is>
-      </c>
+      <c r="M36" s="9" t="inlineStr"/>
       <c r="N36" s="9" t="n"/>
       <c r="O36" s="8" t="n"/>
       <c r="P36" s="9" t="n"/>
@@ -2577,16 +2593,16 @@
       </c>
       <c r="B37" s="8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>XV</t>
         </is>
       </c>
       <c r="C37" s="8" t="n">
-        <v>920</v>
+        <v>601</v>
       </c>
       <c r="D37" s="8" t="inlineStr"/>
       <c r="E37" s="12" t="inlineStr">
         <is>
-          <t>G920</t>
+          <t>XV601</t>
         </is>
       </c>
       <c r="F37" s="8" t="n"/>
@@ -2596,16 +2612,8 @@
       <c r="J37" s="8" t="n"/>
       <c r="K37" s="8" t="n"/>
       <c r="L37" s="8" t="n"/>
-      <c r="M37" s="9" t="inlineStr">
-        <is>
-          <t>Pompa</t>
-        </is>
-      </c>
-      <c r="N37" s="9" t="inlineStr">
-        <is>
-          <t>Pompa chiller</t>
-        </is>
-      </c>
+      <c r="M37" s="9" t="inlineStr"/>
+      <c r="N37" s="9" t="n"/>
       <c r="O37" s="8" t="n"/>
       <c r="P37" s="9" t="n"/>
       <c r="Q37" s="10" t="n"/>
@@ -2633,16 +2641,16 @@
       </c>
       <c r="B38" s="8" t="inlineStr">
         <is>
-          <t>HE</t>
+          <t>XV</t>
         </is>
       </c>
       <c r="C38" s="8" t="n">
-        <v>905</v>
+        <v>851</v>
       </c>
       <c r="D38" s="8" t="inlineStr"/>
       <c r="E38" s="12" t="inlineStr">
         <is>
-          <t>HE905</t>
+          <t>XV851</t>
         </is>
       </c>
       <c r="F38" s="8" t="n"/>
@@ -2652,16 +2660,8 @@
       <c r="J38" s="8" t="n"/>
       <c r="K38" s="8" t="n"/>
       <c r="L38" s="8" t="n"/>
-      <c r="M38" s="9" t="inlineStr">
-        <is>
-          <t>Heater Exchanger</t>
-        </is>
-      </c>
-      <c r="N38" s="9" t="inlineStr">
-        <is>
-          <t>Heater Exchanger</t>
-        </is>
-      </c>
+      <c r="M38" s="9" t="inlineStr"/>
+      <c r="N38" s="9" t="n"/>
       <c r="O38" s="8" t="n"/>
       <c r="P38" s="9" t="n"/>
       <c r="Q38" s="10" t="n"/>

--- a/tests/test1/Schema di funzionamento_rev1.1_bom.xlsx
+++ b/tests/test1/Schema di funzionamento_rev1.1_bom.xlsx
@@ -679,12 +679,12 @@
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D2" s="8" t="inlineStr"/>
       <c r="E2" s="12" t="inlineStr">
         <is>
-          <t>CH910</t>
+          <t>CH905</t>
         </is>
       </c>
       <c r="F2" s="8" t="n"/>
@@ -731,16 +731,16 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="C3" s="8" t="n">
-        <v>100</v>
+        <v>910</v>
       </c>
       <c r="D3" s="8" t="inlineStr"/>
       <c r="E3" s="12" t="inlineStr">
         <is>
-          <t>D100</t>
+          <t>CH910</t>
         </is>
       </c>
       <c r="F3" s="8" t="n"/>
@@ -752,12 +752,12 @@
       <c r="L3" s="8" t="n"/>
       <c r="M3" s="9" t="inlineStr">
         <is>
-          <t>Tank</t>
+          <t>Chiller</t>
         </is>
       </c>
       <c r="N3" s="9" t="inlineStr">
         <is>
-          <t>Vasca Satinatura</t>
+          <t>Chiller</t>
         </is>
       </c>
       <c r="O3" s="8" t="n"/>
@@ -791,12 +791,12 @@
         </is>
       </c>
       <c r="C4" s="8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D4" s="8" t="inlineStr"/>
       <c r="E4" s="12" t="inlineStr">
         <is>
-          <t>D200</t>
+          <t>D100</t>
         </is>
       </c>
       <c r="F4" s="8" t="n"/>
@@ -813,7 +813,7 @@
       </c>
       <c r="N4" s="9" t="inlineStr">
         <is>
-          <t>Vasca Stoccaggio</t>
+          <t>Vasca Satinatura</t>
         </is>
       </c>
       <c r="O4" s="8" t="n"/>
@@ -847,12 +847,12 @@
         </is>
       </c>
       <c r="C5" s="8" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D5" s="8" t="inlineStr"/>
       <c r="E5" s="12" t="inlineStr">
         <is>
-          <t>D500</t>
+          <t>D200</t>
         </is>
       </c>
       <c r="F5" s="8" t="n"/>
@@ -903,12 +903,12 @@
         </is>
       </c>
       <c r="C6" s="8" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="D6" s="8" t="inlineStr"/>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>D700</t>
+          <t>D500</t>
         </is>
       </c>
       <c r="F6" s="8" t="n"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="N6" s="9" t="inlineStr">
         <is>
-          <t>Serbatoi stoccaggio</t>
+          <t>Vasca Stoccaggio</t>
         </is>
       </c>
       <c r="O6" s="8" t="n"/>
@@ -959,12 +959,12 @@
         </is>
       </c>
       <c r="C7" s="8" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="D7" s="8" t="inlineStr"/>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>D800</t>
+          <t>D700</t>
         </is>
       </c>
       <c r="F7" s="8" t="n"/>
@@ -981,7 +981,7 @@
       </c>
       <c r="N7" s="9" t="inlineStr">
         <is>
-          <t>Serbatoio di refluo contenente ammoniaca</t>
+          <t>Serbatoi stoccaggio</t>
         </is>
       </c>
       <c r="O7" s="8" t="n"/>
@@ -1015,12 +1015,12 @@
         </is>
       </c>
       <c r="C8" s="8" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="D8" s="8" t="inlineStr"/>
       <c r="E8" s="12" t="inlineStr">
         <is>
-          <t>D850</t>
+          <t>D800</t>
         </is>
       </c>
       <c r="F8" s="8" t="n"/>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="N8" s="9" t="inlineStr">
         <is>
-          <t>Torre di strippaggio</t>
+          <t>Serbatoio di refluo contenente ammoniaca</t>
         </is>
       </c>
       <c r="O8" s="8" t="n"/>
@@ -1067,18 +1067,16 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>D</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>501</t>
-        </is>
+      <c r="C9" s="8" t="n">
+        <v>850</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="12" t="inlineStr">
         <is>
-          <t>FT501</t>
+          <t>D850</t>
         </is>
       </c>
       <c r="F9" s="8" t="n"/>
@@ -1090,10 +1088,14 @@
       <c r="L9" s="8" t="n"/>
       <c r="M9" s="9" t="inlineStr">
         <is>
-          <t>Flowmeter Impulse</t>
+          <t>Tank</t>
         </is>
       </c>
-      <c r="N9" s="9" t="n"/>
+      <c r="N9" s="9" t="inlineStr">
+        <is>
+          <t>Torre di strippaggio</t>
+        </is>
+      </c>
       <c r="O9" s="8" t="n"/>
       <c r="P9" s="9" t="n"/>
       <c r="Q9" s="10" t="n"/>
@@ -1121,16 +1123,18 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>FT</t>
         </is>
       </c>
-      <c r="C10" s="8" t="n">
-        <v>200</v>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="12" t="inlineStr">
         <is>
-          <t>G200</t>
+          <t>FT501</t>
         </is>
       </c>
       <c r="F10" s="8" t="n"/>
@@ -1142,14 +1146,10 @@
       <c r="L10" s="8" t="n"/>
       <c r="M10" s="9" t="inlineStr">
         <is>
-          <t>Pompa</t>
+          <t>Flowmeter Impulse</t>
         </is>
       </c>
-      <c r="N10" s="9" t="inlineStr">
-        <is>
-          <t>Pompa a Cavità progressiva</t>
-        </is>
-      </c>
+      <c r="N10" s="9" t="n"/>
       <c r="O10" s="8" t="n"/>
       <c r="P10" s="9" t="n"/>
       <c r="Q10" s="10" t="n"/>
@@ -1181,12 +1181,12 @@
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="12" t="inlineStr">
         <is>
-          <t>G300</t>
+          <t>G200</t>
         </is>
       </c>
       <c r="F11" s="8" t="n"/>
@@ -1198,12 +1198,12 @@
       <c r="L11" s="8" t="n"/>
       <c r="M11" s="9" t="inlineStr">
         <is>
-          <t>FiltroPressa</t>
+          <t>Pompa</t>
         </is>
       </c>
       <c r="N11" s="9" t="inlineStr">
         <is>
-          <t>Filtropressa</t>
+          <t>Pompa a Cavità progressiva</t>
         </is>
       </c>
       <c r="O11" s="8" t="n"/>
@@ -1237,12 +1237,12 @@
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="12" t="inlineStr">
         <is>
-          <t>G400</t>
+          <t>G300</t>
         </is>
       </c>
       <c r="F12" s="8" t="n"/>
@@ -1254,12 +1254,12 @@
       <c r="L12" s="8" t="n"/>
       <c r="M12" s="9" t="inlineStr">
         <is>
-          <t>Screw Conveyor</t>
+          <t>FiltroPressa</t>
         </is>
       </c>
       <c r="N12" s="9" t="inlineStr">
         <is>
-          <t>Screw Conveyor</t>
+          <t>Filtropressa</t>
         </is>
       </c>
       <c r="O12" s="8" t="n"/>
@@ -1293,12 +1293,12 @@
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="12" t="inlineStr">
         <is>
-          <t>G600</t>
+          <t>G400</t>
         </is>
       </c>
       <c r="F13" s="8" t="n"/>
@@ -1310,12 +1310,12 @@
       <c r="L13" s="8" t="n"/>
       <c r="M13" s="9" t="inlineStr">
         <is>
-          <t>Abattitore</t>
+          <t>Screw Conveyor</t>
         </is>
       </c>
       <c r="N13" s="9" t="inlineStr">
         <is>
-          <t>Abattitore</t>
+          <t>Screw Conveyor</t>
         </is>
       </c>
       <c r="O13" s="8" t="n"/>
@@ -1349,12 +1349,12 @@
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>710</v>
+        <v>600</v>
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="12" t="inlineStr">
         <is>
-          <t>G710</t>
+          <t>G600</t>
         </is>
       </c>
       <c r="F14" s="8" t="n"/>
@@ -1366,12 +1366,12 @@
       <c r="L14" s="8" t="n"/>
       <c r="M14" s="9" t="inlineStr">
         <is>
-          <t>Pompa</t>
+          <t>Abattitore</t>
         </is>
       </c>
       <c r="N14" s="9" t="inlineStr">
         <is>
-          <t>Pompa a Cavità progressiva</t>
+          <t>Abattitore</t>
         </is>
       </c>
       <c r="O14" s="8" t="n"/>
@@ -1405,12 +1405,12 @@
         </is>
       </c>
       <c r="C15" s="8" t="n">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="D15" s="8" t="inlineStr"/>
       <c r="E15" s="12" t="inlineStr">
         <is>
-          <t>G720</t>
+          <t>G710</t>
         </is>
       </c>
       <c r="F15" s="8" t="n"/>
@@ -1422,12 +1422,12 @@
       <c r="L15" s="8" t="n"/>
       <c r="M15" s="9" t="inlineStr">
         <is>
-          <t>FiltroPressa</t>
+          <t>Pompa</t>
         </is>
       </c>
       <c r="N15" s="9" t="inlineStr">
         <is>
-          <t>Filtropressa</t>
+          <t>Pompa a Cavità progressiva</t>
         </is>
       </c>
       <c r="O15" s="8" t="n"/>
@@ -1461,12 +1461,12 @@
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>810</v>
+        <v>720</v>
       </c>
       <c r="D16" s="8" t="inlineStr"/>
       <c r="E16" s="12" t="inlineStr">
         <is>
-          <t>G810</t>
+          <t>G720</t>
         </is>
       </c>
       <c r="F16" s="8" t="n"/>
@@ -1478,12 +1478,12 @@
       <c r="L16" s="8" t="n"/>
       <c r="M16" s="9" t="inlineStr">
         <is>
-          <t>Pompa</t>
+          <t>FiltroPressa</t>
         </is>
       </c>
       <c r="N16" s="9" t="inlineStr">
         <is>
-          <t>Pompa dosatrice</t>
+          <t>Filtropressa</t>
         </is>
       </c>
       <c r="O16" s="8" t="n"/>
@@ -1517,12 +1517,12 @@
         </is>
       </c>
       <c r="C17" s="8" t="n">
-        <v>920</v>
+        <v>810</v>
       </c>
       <c r="D17" s="8" t="inlineStr"/>
       <c r="E17" s="12" t="inlineStr">
         <is>
-          <t>G920</t>
+          <t>G810</t>
         </is>
       </c>
       <c r="F17" s="8" t="n"/>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="N17" s="9" t="inlineStr">
         <is>
-          <t>Pompa chiller</t>
+          <t>Pompa dosatrice</t>
         </is>
       </c>
       <c r="O17" s="8" t="n"/>
@@ -1573,12 +1573,12 @@
         </is>
       </c>
       <c r="C18" s="8" t="n">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="12" t="inlineStr">
         <is>
-          <t>G940</t>
+          <t>G920</t>
         </is>
       </c>
       <c r="F18" s="8" t="n"/>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="N18" s="9" t="inlineStr">
         <is>
-          <t>Pompa dosatrice</t>
+          <t>Pompa chiller</t>
         </is>
       </c>
       <c r="O18" s="8" t="n"/>
@@ -1625,16 +1625,16 @@
       </c>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>850</v>
+        <v>940</v>
       </c>
       <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="12" t="inlineStr">
         <is>
-          <t>H850</t>
+          <t>G940</t>
         </is>
       </c>
       <c r="F19" s="8" t="n"/>
@@ -1646,12 +1646,12 @@
       <c r="L19" s="8" t="n"/>
       <c r="M19" s="9" t="inlineStr">
         <is>
-          <t>Heater</t>
+          <t>Pompa</t>
         </is>
       </c>
       <c r="N19" s="9" t="inlineStr">
         <is>
-          <t>Riscaldatore</t>
+          <t>Pompa dosatrice</t>
         </is>
       </c>
       <c r="O19" s="8" t="n"/>
@@ -1681,16 +1681,16 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>HE</t>
+          <t>H</t>
         </is>
       </c>
       <c r="C20" s="8" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="D20" s="8" t="inlineStr"/>
       <c r="E20" s="12" t="inlineStr">
         <is>
-          <t>HE900</t>
+          <t>H850</t>
         </is>
       </c>
       <c r="F20" s="8" t="n"/>
@@ -1702,12 +1702,12 @@
       <c r="L20" s="8" t="n"/>
       <c r="M20" s="9" t="inlineStr">
         <is>
-          <t>Heater Exchanger</t>
+          <t>Heater</t>
         </is>
       </c>
       <c r="N20" s="9" t="inlineStr">
         <is>
-          <t>Heater Exchanger</t>
+          <t>Riscaldatore</t>
         </is>
       </c>
       <c r="O20" s="8" t="n"/>
@@ -1741,12 +1741,12 @@
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="12" t="inlineStr">
         <is>
-          <t>HE905</t>
+          <t>HE900</t>
         </is>
       </c>
       <c r="F21" s="8" t="n"/>
@@ -2516,15 +2516,23 @@
       <c r="J35" s="8" t="n"/>
       <c r="K35" s="8" t="n"/>
       <c r="L35" s="8" t="n"/>
-      <c r="M35" s="9" t="inlineStr"/>
-      <c r="N35" s="9" t="n"/>
+      <c r="M35" s="9" t="inlineStr">
+        <is>
+          <t>Ball Valve with Pneumatic actuator</t>
+        </is>
+      </c>
+      <c r="N35" s="9" t="inlineStr"/>
       <c r="O35" s="8" t="n"/>
       <c r="P35" s="9" t="n"/>
       <c r="Q35" s="10" t="n"/>
       <c r="R35" s="8" t="n"/>
       <c r="S35" s="8" t="n"/>
       <c r="T35" s="8" t="n"/>
-      <c r="U35" s="8" t="n"/>
+      <c r="U35" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="V35" s="8" t="n"/>
       <c r="W35" s="8" t="n"/>
       <c r="X35" s="9" t="n"/>
@@ -2564,7 +2572,11 @@
       <c r="J36" s="8" t="n"/>
       <c r="K36" s="8" t="n"/>
       <c r="L36" s="8" t="n"/>
-      <c r="M36" s="9" t="inlineStr"/>
+      <c r="M36" s="9" t="inlineStr">
+        <is>
+          <t>Ball Valve with Pneumatic actuator  1212</t>
+        </is>
+      </c>
       <c r="N36" s="9" t="n"/>
       <c r="O36" s="8" t="n"/>
       <c r="P36" s="9" t="n"/>
@@ -2612,15 +2624,23 @@
       <c r="J37" s="8" t="n"/>
       <c r="K37" s="8" t="n"/>
       <c r="L37" s="8" t="n"/>
-      <c r="M37" s="9" t="inlineStr"/>
-      <c r="N37" s="9" t="n"/>
+      <c r="M37" s="9" t="inlineStr">
+        <is>
+          <t>Ball Valve with Pneumatic actuator</t>
+        </is>
+      </c>
+      <c r="N37" s="9" t="inlineStr"/>
       <c r="O37" s="8" t="n"/>
       <c r="P37" s="9" t="n"/>
       <c r="Q37" s="10" t="n"/>
       <c r="R37" s="8" t="n"/>
       <c r="S37" s="8" t="n"/>
       <c r="T37" s="8" t="n"/>
-      <c r="U37" s="8" t="n"/>
+      <c r="U37" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Flanged</t>
+        </is>
+      </c>
       <c r="V37" s="8" t="n"/>
       <c r="W37" s="8" t="n"/>
       <c r="X37" s="9" t="n"/>
@@ -2660,7 +2680,11 @@
       <c r="J38" s="8" t="n"/>
       <c r="K38" s="8" t="n"/>
       <c r="L38" s="8" t="n"/>
-      <c r="M38" s="9" t="inlineStr"/>
+      <c r="M38" s="9" t="inlineStr">
+        <is>
+          <t>Ball Valve with Pneumatic actuator</t>
+        </is>
+      </c>
       <c r="N38" s="9" t="n"/>
       <c r="O38" s="8" t="n"/>
       <c r="P38" s="9" t="n"/>

--- a/tests/test1/Schema di funzionamento_rev1.1_bom.xlsx
+++ b/tests/test1/Schema di funzionamento_rev1.1_bom.xlsx
@@ -10,14 +10,10 @@
   </sheets>
   <definedNames>
     <definedName name="A">#REF!</definedName>
-    <definedName name="DBWBOM" localSheetId="0">#REF!</definedName>
     <definedName name="DBWBOM">#REF!</definedName>
-    <definedName name="DBWBUY" localSheetId="0">#REF!</definedName>
     <definedName name="DBWBUY">#REF!</definedName>
-    <definedName name="DBWTREE" localSheetId="0">#REF!</definedName>
     <definedName name="DBWTREE">#REF!</definedName>
     <definedName name="Dint">#REF!</definedName>
-    <definedName name="ELCADExport" localSheetId="0">BOM!$B$1:$Q$1</definedName>
     <definedName name="ELCADExport">#REF!</definedName>
     <definedName name="erel">#REF!</definedName>
     <definedName name="jaar">#REF!</definedName>
@@ -26,6 +22,10 @@
     <definedName name="Q">#REF!</definedName>
     <definedName name="Re">#REF!</definedName>
     <definedName name="v">#REF!</definedName>
+    <definedName name="DBWBOM" localSheetId="0">#REF!</definedName>
+    <definedName name="DBWBUY" localSheetId="0">#REF!</definedName>
+    <definedName name="DBWTREE" localSheetId="0">#REF!</definedName>
+    <definedName name="ELCADExport" localSheetId="0">BOM!$B$1:$Q$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BOM'!$A$1:$AJ$662</definedName>
   </definedNames>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
